--- a/Files/template.xlsx
+++ b/Files/template.xlsx
@@ -4,111 +4,43 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Object:Document:??????</t>
-  </si>
-  <si>
-    <t>Model:Document:A4:P27</t>
-  </si>
-  <si>
-    <t>Ожидаемое время доставки</t>
-  </si>
-  <si>
-    <t>Value:DateTime:ReceivingDate</t>
-  </si>
-  <si>
-    <t>Время вывоза товара от поставщика</t>
-  </si>
-  <si>
-    <t>Value:DateTime:DespatchDate</t>
-  </si>
-  <si>
-    <t>Покупатель</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Object:Organization:Buyer</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Штрихкод</t>
-  </si>
-  <si>
-    <t>Код сети</t>
-  </si>
-  <si>
-    <t>Артикул</t>
-  </si>
-  <si>
-    <t>Кутикул</t>
-  </si>
-  <si>
-    <t>Хуикул</t>
-  </si>
-  <si>
-    <t>Object[Vertical]:GoodItem:GoodItems</t>
-  </si>
-  <si>
-    <t>Model:Organization:A34:B38</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
     <t>Value:String:Name</t>
   </si>
   <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Value:String:Inn</t>
-  </si>
-  <si>
-    <t>КПП</t>
-  </si>
-  <si>
-    <t>Value:String:Kpp</t>
-  </si>
-  <si>
-    <t>ГЛН</t>
-  </si>
-  <si>
-    <t>Value:String:Gln</t>
-  </si>
-  <si>
-    <t>Адрес</t>
-  </si>
-  <si>
     <t>Value:String:Address</t>
   </si>
   <si>
-    <t>Model:GoodItem:A41:E41</t>
-  </si>
-  <si>
-    <t>Value:String:GTIN</t>
-  </si>
-  <si>
-    <t>Value:String:BuyerProductID</t>
-  </si>
-  <si>
-    <t>Value:String:SupplierProductId</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>Object:Document:Root</t>
+  </si>
+  <si>
+    <t>Object:Organization:Supplier</t>
+  </si>
+  <si>
+    <t>Model:Organization:A23:A24</t>
+  </si>
+  <si>
+    <t>Model:Document:B10:C11</t>
+  </si>
+  <si>
+    <t>Покупатель:</t>
+  </si>
+  <si>
+    <t>Поставщик:</t>
   </si>
 </sst>
 </file>
@@ -118,12 +50,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,15 +94,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,7 +410,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,11 +419,12 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -493,9 +436,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -506,12 +447,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -521,12 +458,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -536,12 +469,8 @@
       <c r="I5" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -550,34 +479,33 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
+      <c r="B11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -597,121 +525,78 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Files/template.xlsx
+++ b/Files/template.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Object:Organization:Buyer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Покупатель:</t>
+  </si>
+  <si>
+    <t>Поставщик:</t>
+  </si>
+  <si>
+    <t>Value:Organization:Buyer</t>
+  </si>
+  <si>
+    <t>Value:Organization:Supplier</t>
+  </si>
+  <si>
+    <t>Template:Organization:A23:A24</t>
   </si>
   <si>
     <t>Value:String:Name</t>
@@ -25,32 +37,18 @@
     <t>Value:String:Address</t>
   </si>
   <si>
-    <t>Object:Document:Root</t>
-  </si>
-  <si>
-    <t>Object:Organization:Supplier</t>
-  </si>
-  <si>
-    <t>Model:Organization:A23:A24</t>
-  </si>
-  <si>
     <t>Model:Document:B10:C11</t>
-  </si>
-  <si>
-    <t>Покупатель:</t>
-  </si>
-  <si>
-    <t>Поставщик:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +72,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FF7AC814"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8081C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,20 +113,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -112,6 +153,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF7AC814"/>
+      <color rgb="FF8081C8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,7 +458,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +466,13 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
+    <row r="1" spans="1:9" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8">
+        <v>123.45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -434,6 +482,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -470,7 +521,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -481,16 +532,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -501,13 +552,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -527,17 +580,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,5 +651,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/template.xlsx
+++ b/Files/template.xlsx
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -146,6 +146,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I2" sqref="I2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +474,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8">
         <v>123.45</v>
       </c>
@@ -483,10 +487,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -495,9 +501,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -508,7 +515,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -519,7 +526,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -530,12 +537,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
         <v>0</v>
@@ -550,7 +557,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -567,7 +574,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -578,39 +585,43 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -650,6 +661,10 @@
       <c r="E41" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B32:C35"/>
+    <mergeCell ref="I2:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
